--- a/biology/Botanique/Bibliographie_sur_la_pomme_de_terre/Bibliographie_sur_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Bibliographie_sur_la_pomme_de_terre/Bibliographie_sur_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>[Augustin 1773] Antoine Augustin Parmentier, Examen chymique des pommes de terre : dans lequel on traite des parties constituantes du bled, Paris, Didot le jeune, 1773, 248 } (lire en ligne [sur wikisource]).
 [Bonjean 1845] Joseph Bonjean, Monographie de la pomme de terre envisagée dans ses rapports agricoles, scientifiques et industriels et comprenant l'histoire générale de la maladie des pommes de terre en 1845, Paris, Germer Baillière, 1846, 306 p., sur Wikisource.
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>[Ferault 2012] Christian Ferault (préf. Guy Paillotin), Une Histoire de pomme de terre : la variété Institut de Beauvais, Paris, Les Éditions d'En Face, 2012, 142 p. (ISBN 978-2-35246-032-9).
 [Ferrière &amp; Williot 2011] Marc de Ferrière Le Vayer et Jean-Pierre Williot (dir.), La pomme de terre de la Renaissance au XXIe siècle (actes du colloque « La Pomme de Terre : de la Renaissance au XXIe siècle, Histoire, Société, Économie, Culture », Tours, 18-20 novembre 2008), Rennes/Tours, Presses universitaires de Rennes / Presses universitaires François Rabelais de Tours, coll. « Table des hommes », 2011, 414 p. (ISBN 978-2-7535-1397-6, lire en ligne).
@@ -588,7 +604,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Zósimo Huamán, Systematic, botany and morphology of the potato, Centre international de la pomme de terre, 1986, 22 p. (lire en ligne)</t>
         </is>
@@ -618,7 +636,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Dick Vreugdenhil et John E. Bradshaw, Potato biology and biotechnology : advances and perspectives, Elsevier, 2007, 823 p. (ISBN 978-0-444-51018-1 et 0-444-51018-4)
 Éclairage sur un trésor enfoui - Année internationale de la pomme de terre 2008 : Compte rendu de fin d'année, FAO, 2008, 144 p. (ISBN 978-92-5-206142-7 et 92-5-206142-8) [(fr) texte intégral]</t>
@@ -649,7 +669,9 @@
           <t>Biotechnologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Collectif, Transgenic Potatoes for the Benefit of Resource-poor Farmers in Developing Countries, Lima, Centre international de la pomme de terre, 2000, 129 p. [(en) texte intégral]
 (en) M. Ghislain, M. Querci, M. Bonierbale, A. Golmirzale, R. Nelson, Biotechnology and the potato : applications for the developing world, Lima, Centre international de la pomme de terre, 1997, 18 p. [(en) texte intégral]</t>
@@ -680,10 +702,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>André Gault,, La pomme de terre : Culture, sélection, utilisation, Paris, Flammarion, coll. « La Terre, Encyclopédie paysanne », 1938, 148 p.
-Lucien Dupouy,, Pour bien cultiver, conserver et utiliser la pomme de terre, Paris, Rustica, Ed. de Montsouris, 1946, 62 p.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>André Gault La pomme de terre : Culture, sélection, utilisation, Paris, Flammarion, coll. « La Terre, Encyclopédie paysanne », 1938, 148 p.
+Lucien Dupouy Pour bien cultiver, conserver et utiliser la pomme de terre, Paris, Rustica, Ed. de Montsouris, 1946, 62 p.
 Claude Lambert, La mécanisation de la culture de la pomme de terre, Paris, Comité d'études techniques de la pomme de terre, 1958, 230 p.
 Collectif, La culture de la pomme de terre de conservation, Paris, ITCF, 1995, 64 p. (ISBN 2-86492-224-X)
 (it) Centro Divulgazione Agricola, La coltivazione della patata : Dalla tecnica al marketing - Le innovazioni in corso, Bologne, Edagricole, 2006, 94 p. (ISBN 88-506-5170-8)</t>
@@ -714,10 +738,12 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Charles Henry Philippe Levêque de Vilmorin, Catalogue méthodique et synonymique des principales variétés de Pommes de terre, Paris, chez Vilmorin-Andrieux et Cie, 1886, 51 p.
-Robert Diehl,, La pomme de terre : caractères et description des variétés, Paris, Imprimerie nationale, 1938, 157 p.
+Robert Diehl La pomme de terre : caractères et description des variétés, Paris, Imprimerie nationale, 1938, 157 p.
 Dorothée Bourget, Le grand livre des variétés de pommes de terre, Paris, Ad hoc, 1998, 157 p. (ISBN 2-9513185-0-2).
 Collectif, Variétés de pommes de terre produites en France : Catalogue 2008, Paris, Lavoisier, 2008, 320 p. (ISBN 978-2-7562-0286-0 et 2-7562-0286-X).
 (en) Uwe Hils et Lukie Pieterse, World catalogue of potato varieties 2009/2010, AgriMedia GmbH, 2009, 253 p. (ISBN 978-3-86037-984-4 et 3-86037-984-4).</t>
@@ -748,7 +774,9 @@
           <t>Maladies et ravageurs</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>[Ducomet, Foex &amp; Alabouvette 1935] V. Ducomet, Ev. Foex et L. Alabouvette, Les maladies de la pomme de terre, Paris, Imprimerie nationale, 1935, 40 p..
 [Radtke &amp; Rieckmann 1991] Wolfgang Radtke et Walter Rieckmann, Maladies et ravageurs de la pomme de terre, Th. Mann - Gelsenkirchen-Buer, 1991, 168 p. (ISBN 3-7862-0090-4).
@@ -784,7 +812,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(en) Jennifer A. Woolfe, The potato in the human diet, Cambridge University Press, 1987, 321 p. (ISBN 0-521-32669-9)
 Racines, tubercules, plantains et bananes dans la nutrition humaine, Rome, FAO, coll. « Nutrition », 1991, 196 p. (ISBN 92-5-202862-5, lire en ligne) [(fr) Texte intégral]
@@ -816,7 +846,9 @@
           <t>Cuisine</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>[Allegri et al. 2003] Cécile Allegri, Claire Brosse, Federico Oldenburg et Hervé Robert, La pomme de terre, saveurs méditerranéennes, Éditions du Bottin Gourmand, coll. « Les essentiels du goût », 2003, 99 p. (ISBN 2-913306-61-6).
 [Desnoues 1978] Lucienne Desnoues, Toute la pomme de terre, Paris, Mercure de France, 1978, 302 p..
